--- a/ArchivosXLSX/Salas.xlsx
+++ b/ArchivosXLSX/Salas.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">M6</t>
   </si>
   <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
   </si>
 </sst>
 </file>
@@ -171,11 +171,11 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -469,98 +469,98 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/ArchivosXLSX/Salas.xlsx
+++ b/ArchivosXLSX/Salas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t xml:space="preserve">Edificio</t>
   </si>
@@ -98,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -113,6 +113,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -139,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +156,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,98 +480,146 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="0" t="n">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="n">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="0" t="n">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="0" t="n">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="n">
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="B50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="B51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="B52" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="B53" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B54" s="2" t="n">
         <v>6</v>
       </c>
     </row>
